--- a/data/trans_dic/P25A$otro-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008687272808593374</v>
+        <v>0.00867745192895931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01768105389722916</v>
+        <v>0.01750574932303724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0447617462930048</v>
+        <v>0.04453658121105696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02663714122954399</v>
+        <v>0.02617915181709001</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07335354657894012</v>
+        <v>0.07780275247544004</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01600973609819319</v>
+        <v>0.01977781858427631</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02311853937711252</v>
+        <v>0.02240028932126508</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0675927661822123</v>
+        <v>0.07121060750480691</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08222322961957029</v>
+        <v>0.08847357041645827</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1355348473301343</v>
+        <v>0.1370941771173849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1711347686023608</v>
+        <v>0.176981031885147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2182166795814537</v>
+        <v>0.197346460258144</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1400239088247519</v>
+        <v>0.1275340555448316</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2842216574605779</v>
+        <v>0.3096391335306685</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08721026856822246</v>
+        <v>0.09011466054096852</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1105220033166537</v>
+        <v>0.09766647223197918</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1790033314669426</v>
+        <v>0.1804599868050221</v>
       </c>
     </row>
     <row r="7">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01059619812483849</v>
+        <v>0.01080503486988238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07105812372876748</v>
+        <v>0.06982420544327811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05079450938865581</v>
+        <v>0.04988447957431331</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01849980446371656</v>
+        <v>0.01924384604361235</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05677197701759561</v>
+        <v>0.05653206617260476</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02558389966269206</v>
+        <v>0.02701799836395498</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02136423262337856</v>
+        <v>0.02097640092010267</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07847298395222552</v>
+        <v>0.07919619132053608</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0965493252198342</v>
+        <v>0.06558822258309106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08694009901834693</v>
+        <v>0.1012080664287294</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2329495290514088</v>
+        <v>0.2273925808510199</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2924472918989482</v>
+        <v>0.2857733761450219</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1665176498872435</v>
+        <v>0.1718417434635979</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2274115840107282</v>
+        <v>0.2137951289021824</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1188516495551004</v>
+        <v>0.1201873254298241</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09479448863667471</v>
+        <v>0.095605514461843</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2007090102526437</v>
+        <v>0.1973573853124684</v>
       </c>
     </row>
     <row r="10">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0790709610129071</v>
+        <v>0.08200555899172569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04520437263969788</v>
+        <v>0.04469690763204986</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0158273831470226</v>
+        <v>0.01554195545574071</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004945009492494687</v>
+        <v>0.00487172981417215</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07340535423157421</v>
+        <v>0.07979080618154022</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05291546076721844</v>
+        <v>0.05510454769657527</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03002550309725053</v>
+        <v>0.02760954341445856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2225413709685318</v>
+        <v>0.2286857084283909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3935861814864661</v>
+        <v>0.3880558719157661</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1848325988203119</v>
+        <v>0.1899549026233622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.406907355670504</v>
+        <v>0.3250783169804081</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08706637613248433</v>
+        <v>0.08645397668196117</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04222473830550395</v>
+        <v>0.04228191322970754</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2091692546513914</v>
+        <v>0.2115697576421068</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01647498329329868</v>
+        <v>0.01613069434713867</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006102941807762218</v>
+        <v>0.00615265119152934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03312496617000886</v>
+        <v>0.03376072209702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04518329296742899</v>
+        <v>0.04374081054932092</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04197383897288395</v>
+        <v>0.04360663534320481</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05677206988443524</v>
+        <v>0.05915855599095964</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02886787751373165</v>
+        <v>0.02700129844214382</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02057409694842841</v>
+        <v>0.02021581564187527</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04842652957427449</v>
+        <v>0.04786072927974229</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06262987406425657</v>
+        <v>0.06469621346871966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03622934835673997</v>
+        <v>0.03508358451574488</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09616568917790992</v>
+        <v>0.09628329650350066</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2213533212582618</v>
+        <v>0.2171130069663677</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1672461672034812</v>
+        <v>0.1538986321202375</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.201714541643965</v>
+        <v>0.2082250392398373</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08055901172727341</v>
+        <v>0.07959533451357514</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05801396720505519</v>
+        <v>0.05726376379263121</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1089227904696545</v>
+        <v>0.1090836805012262</v>
       </c>
     </row>
     <row r="16">
@@ -1115,23 +1115,23 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04515364240155915</v>
+        <v>0.04785618113452152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02639583483618863</v>
+        <v>0.02649803702458362</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.09358724006834915</v>
+        <v>0.09476977216580458</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009387529191870718</v>
+        <v>0.009473740345421474</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07734286049849558</v>
+        <v>0.0804799514070093</v>
       </c>
     </row>
     <row r="18">
@@ -1143,26 +1143,26 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04903869142203336</v>
+        <v>0.05466648227481465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1597079491052195</v>
+        <v>0.1617594696310985</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.19759921412145</v>
+        <v>0.2211925659871765</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.2819495136673358</v>
+        <v>0.293375943979984</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07905206070388374</v>
+        <v>0.07996482615706446</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03254582476081166</v>
+        <v>0.03583879963673615</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1825732130734624</v>
+        <v>0.1833350239559211</v>
       </c>
     </row>
     <row r="19">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02058581531016722</v>
+        <v>0.02191565721121422</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02731245301743749</v>
+        <v>0.01982144644884175</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02203672963164867</v>
+        <v>0.02230697572682604</v>
       </c>
     </row>
     <row r="21">
@@ -1245,25 +1245,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.827095599054511</v>
+        <v>0.8275560803511463</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.207915181949205</v>
+        <v>0.2092573522352371</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0851674429762609</v>
+        <v>0.09117409332741674</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1892377942276801</v>
+        <v>0.1925617707880977</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1885884484267978</v>
+        <v>0.1922073511971161</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07740852700724184</v>
+        <v>0.06136946082843538</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2048835705697242</v>
+        <v>0.2113727079361571</v>
       </c>
     </row>
     <row r="22">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01273743901172479</v>
+        <v>0.01357703591117294</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03012340057702882</v>
+        <v>0.03021559534222638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09431173979282347</v>
+        <v>0.0948796905607439</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03549551457394497</v>
+        <v>0.03434526754275754</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02172189415688878</v>
+        <v>0.02092061705633476</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08855476397304479</v>
+        <v>0.08834074115931641</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0376084325097465</v>
+        <v>0.0373470641617737</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07810965612158793</v>
+        <v>0.07486902487590992</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1699748386228034</v>
+        <v>0.1707711112501772</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06497610613654263</v>
+        <v>0.06271315936854542</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04173166849400459</v>
+        <v>0.04172138704959279</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1294137658025017</v>
+        <v>0.1288682851510209</v>
       </c>
     </row>
     <row r="25">
@@ -1603,31 +1603,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1982</v>
+        <v>1962</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4179</v>
+        <v>4158</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4504</v>
+        <v>4777</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2144</v>
+        <v>2649</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3786</v>
+        <v>3668</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10460</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="7">
@@ -1638,31 +1638,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7883</v>
+        <v>8483</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15190</v>
+        <v>15364</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15976</v>
+        <v>16522</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8307</v>
+        <v>7512</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7239</v>
+        <v>6593</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17450</v>
+        <v>19011</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11681</v>
+        <v>12070</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18100</v>
+        <v>15995</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27701</v>
+        <v>27926</v>
       </c>
     </row>
     <row r="8">
@@ -1750,28 +1750,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5177</v>
+        <v>5087</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2055</v>
+        <v>2018</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3800</v>
+        <v>3784</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3078</v>
+        <v>3250</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3076</v>
+        <v>3020</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10970</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="11">
@@ -1782,31 +1782,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7708</v>
+        <v>5236</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7818</v>
+        <v>9101</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16972</v>
+        <v>16567</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11833</v>
+        <v>11563</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9002</v>
+        <v>9290</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15221</v>
+        <v>14310</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14298</v>
+        <v>14459</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13649</v>
+        <v>13765</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>28057</v>
+        <v>27588</v>
       </c>
     </row>
     <row r="12">
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7771</v>
+        <v>8060</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2075</v>
+        <v>2037</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8183</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="15">
@@ -1926,31 +1926,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5646</v>
+        <v>5880</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4864</v>
+        <v>4472</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21872</v>
+        <v>22476</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9594</v>
+        <v>9459</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6501</v>
+        <v>6681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5367</v>
+        <v>4287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11413</v>
+        <v>11332</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8325</v>
+        <v>8336</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23317</v>
+        <v>23584</v>
       </c>
     </row>
     <row r="16">
@@ -2035,31 +2035,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4483</v>
+        <v>4389</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1946</v>
+        <v>1962</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7544</v>
+        <v>7689</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2862</v>
+        <v>2771</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4749</v>
+        <v>4934</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4921</v>
+        <v>5128</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9684</v>
+        <v>9058</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8890</v>
+        <v>8735</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15226</v>
+        <v>15048</v>
       </c>
     </row>
     <row r="19">
@@ -2070,31 +2070,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17043</v>
+        <v>17605</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11555</v>
+        <v>11189</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21901</v>
+        <v>21928</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14021</v>
+        <v>13753</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18924</v>
+        <v>17413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17483</v>
+        <v>18048</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27025</v>
+        <v>26701</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25067</v>
+        <v>24743</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34247</v>
+        <v>34298</v>
       </c>
     </row>
     <row r="20">
@@ -2183,23 +2183,23 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4863</v>
+        <v>5154</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>6570</v>
+        <v>6653</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13758</v>
+        <v>14316</v>
       </c>
     </row>
     <row r="23">
@@ -2211,26 +2211,26 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6235</v>
+        <v>6950</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17199</v>
+        <v>17420</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7014</v>
+        <v>7852</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>19792</v>
+        <v>20594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7833</v>
+        <v>7923</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6398</v>
+        <v>7045</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32478</v>
+        <v>32613</v>
       </c>
     </row>
     <row r="24">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1008</v>
+        <v>1074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1489</v>
+        <v>1081</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27">
@@ -2348,25 +2348,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10185</v>
+        <v>10251</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5190</v>
+        <v>5556</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6838</v>
+        <v>6958</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10281</v>
+        <v>10478</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5183</v>
+        <v>4109</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8545</v>
+        <v>8816</v>
       </c>
     </row>
     <row r="28">
@@ -2451,31 +2451,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7944</v>
+        <v>8467</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11581</v>
+        <v>11617</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>31550</v>
+        <v>31740</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>31037</v>
+        <v>30031</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26078</v>
+        <v>25116</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>83243</v>
+        <v>83042</v>
       </c>
     </row>
     <row r="31">
@@ -2486,31 +2486,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23455</v>
+        <v>23292</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>30030</v>
+        <v>28784</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>56861</v>
+        <v>57127</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>56814</v>
+        <v>54836</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>50100</v>
+        <v>50088</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>121651</v>
+        <v>121139</v>
       </c>
     </row>
     <row r="32">
